--- a/data/experimental/Matriz- DCCR Dunaliella salina_dfba_new.xlsx
+++ b/data/experimental/Matriz- DCCR Dunaliella salina_dfba_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bisbii\PythonProjects\dynamic_model\data\experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B5C75-6887-42B6-A9DF-CAA08B99D1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C2027-D0AB-4872-9D34-348E7D8996B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="27" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,29 +31,32 @@
     <sheet name="16" sheetId="16" r:id="rId16"/>
     <sheet name="17" sheetId="17" r:id="rId17"/>
     <sheet name="18" sheetId="18" r:id="rId18"/>
-    <sheet name="20" sheetId="19" r:id="rId19"/>
-    <sheet name="22" sheetId="20" r:id="rId20"/>
-    <sheet name="23" sheetId="21" r:id="rId21"/>
-    <sheet name="24" sheetId="22" r:id="rId22"/>
-    <sheet name="PC" sheetId="23" r:id="rId23"/>
-    <sheet name="N1" sheetId="24" r:id="rId24"/>
-    <sheet name="N2" sheetId="25" r:id="rId25"/>
-    <sheet name="N3" sheetId="26" r:id="rId26"/>
-    <sheet name="N4" sheetId="27" r:id="rId27"/>
-    <sheet name="NC" sheetId="28" r:id="rId28"/>
-    <sheet name="TC" sheetId="29" r:id="rId29"/>
-    <sheet name="SC" sheetId="30" r:id="rId30"/>
-    <sheet name="fachet_LL" sheetId="31" r:id="rId31"/>
-    <sheet name="fachet_HL" sheetId="32" r:id="rId32"/>
-    <sheet name="fachet_HLND" sheetId="33" r:id="rId33"/>
-    <sheet name="fachet_ML" sheetId="34" r:id="rId34"/>
-    <sheet name="Xi_cont_S" sheetId="35" r:id="rId35"/>
-    <sheet name="Xi_cont_F" sheetId="36" r:id="rId36"/>
-    <sheet name="Yimei_N+" sheetId="37" r:id="rId37"/>
-    <sheet name="Yimei_N-" sheetId="38" r:id="rId38"/>
-    <sheet name="Yimei_HS" sheetId="39" r:id="rId39"/>
-    <sheet name="Yimei_HL" sheetId="40" r:id="rId40"/>
-    <sheet name="Resume" sheetId="41" r:id="rId41"/>
+    <sheet name="19" sheetId="42" r:id="rId19"/>
+    <sheet name="20" sheetId="19" r:id="rId20"/>
+    <sheet name="22" sheetId="20" r:id="rId21"/>
+    <sheet name="23" sheetId="21" r:id="rId22"/>
+    <sheet name="24" sheetId="22" r:id="rId23"/>
+    <sheet name="PC" sheetId="23" r:id="rId24"/>
+    <sheet name="N1" sheetId="24" r:id="rId25"/>
+    <sheet name="N2" sheetId="25" r:id="rId26"/>
+    <sheet name="N3" sheetId="26" r:id="rId27"/>
+    <sheet name="N4" sheetId="27" r:id="rId28"/>
+    <sheet name="NC" sheetId="28" r:id="rId29"/>
+    <sheet name="TC" sheetId="29" r:id="rId30"/>
+    <sheet name="SC" sheetId="30" r:id="rId31"/>
+    <sheet name="SC_Sousa2024" sheetId="44" r:id="rId32"/>
+    <sheet name="OC_Sousa2024" sheetId="43" r:id="rId33"/>
+    <sheet name="fachet_LL" sheetId="31" r:id="rId34"/>
+    <sheet name="fachet_HL" sheetId="32" r:id="rId35"/>
+    <sheet name="fachet_HLND" sheetId="33" r:id="rId36"/>
+    <sheet name="fachet_ML" sheetId="34" r:id="rId37"/>
+    <sheet name="Xi_cont_S" sheetId="35" r:id="rId38"/>
+    <sheet name="Xi_cont_F" sheetId="36" r:id="rId39"/>
+    <sheet name="Yimei_N+" sheetId="37" r:id="rId40"/>
+    <sheet name="Yimei_N-" sheetId="38" r:id="rId41"/>
+    <sheet name="Yimei_HS" sheetId="39" r:id="rId42"/>
+    <sheet name="Yimei_HL" sheetId="40" r:id="rId43"/>
+    <sheet name="Resume" sheetId="41" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="149">
   <si>
     <t>Time (d)</t>
   </si>
@@ -515,6 +518,12 @@
   <si>
     <t>PRISM_white_LED__extr,PRISM_red_LED_674nm__extr,PRISM_red_LED_array_653nm__extr</t>
   </si>
+  <si>
+    <t>OC_Sousa2024</t>
+  </si>
+  <si>
+    <t>SC_Sousa2024</t>
+  </si>
 </sst>
 </file>
 
@@ -572,11 +581,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5423,7 +5433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:AA10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5944,41 +5956,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:AA12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576F440-10BA-48AB-B7B3-873A63414724}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="15" width="24.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" customWidth="1"/>
-    <col min="25" max="25" width="35.7109375" customWidth="1"/>
-    <col min="26" max="26" width="32.7109375" customWidth="1"/>
-    <col min="27" max="27" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6024,522 +6017,109 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
-        <v>0.13833333333333331</v>
+        <v>0.12766666666666668</v>
       </c>
       <c r="C2">
-        <v>0.1137048333333333</v>
+        <v>0.10105096666666666</v>
       </c>
       <c r="D2">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F2">
-        <v>6.822289999999998E-4</v>
+        <v>6.6324820000000014E-4</v>
       </c>
       <c r="H2">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="J2">
-        <v>4.5481933333333322E-5</v>
+        <v>4.4216546666666678E-5</v>
       </c>
       <c r="L2">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="N2">
-        <v>9.0963866666666645E-5</v>
-      </c>
-      <c r="S2">
-        <v>890059</v>
-      </c>
-      <c r="T2">
-        <v>7.11</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8.8433093333333356E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3">
-        <v>0.2195</v>
+        <v>0.16766666666666666</v>
       </c>
       <c r="C3">
-        <v>0.20999285000000001</v>
-      </c>
-      <c r="S3">
-        <v>1620559</v>
-      </c>
-      <c r="T3">
-        <v>6.57</v>
-      </c>
-      <c r="U3">
-        <v>2.0060003472222219E-3</v>
-      </c>
-      <c r="V3">
-        <v>3.7426875157950141E-3</v>
-      </c>
-      <c r="W3">
-        <v>0.52544533240194924</v>
-      </c>
-      <c r="X3">
-        <v>9.501068371245261E-6</v>
-      </c>
-      <c r="Y3">
-        <v>5.4306525646883718E-4</v>
-      </c>
-      <c r="Z3">
-        <v>1.8652733195012591E-2</v>
-      </c>
-      <c r="AA3">
-        <v>3.9325543806375422E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.14850296666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
-        <v>0.34666666666666668</v>
+        <v>0.19299999999999998</v>
       </c>
       <c r="C4">
-        <v>0.36085066666666671</v>
-      </c>
-      <c r="S4">
-        <v>2765059</v>
-      </c>
-      <c r="T4">
-        <v>7.11</v>
-      </c>
-      <c r="U4">
-        <v>3.142871180555556E-3</v>
-      </c>
-      <c r="V4">
-        <v>5.8637999477445524E-3</v>
-      </c>
-      <c r="W4">
-        <v>0.46681589311215749</v>
-      </c>
-      <c r="X4">
-        <v>1.4885657427638881E-5</v>
-      </c>
-      <c r="Y4">
-        <v>4.8246977769850018E-4</v>
-      </c>
-      <c r="Z4">
-        <v>2.922389204885956E-2</v>
-      </c>
-      <c r="AA4">
-        <v>3.4937580985211367E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.17855589999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.50233333333333341</v>
+        <v>0.19099999999999998</v>
       </c>
       <c r="C5">
-        <v>0.54551803333333337</v>
-      </c>
-      <c r="S5">
-        <v>4166059.0000000009</v>
-      </c>
-      <c r="T5">
-        <v>6.94</v>
-      </c>
-      <c r="U5">
-        <v>3.8472368055555571E-3</v>
-      </c>
-      <c r="V5">
-        <v>7.1779674327567657E-3</v>
-      </c>
-      <c r="W5">
-        <v>0.3598985900788379</v>
-      </c>
-      <c r="X5">
-        <v>1.8221761516926239E-5</v>
-      </c>
-      <c r="Y5">
-        <v>3.7196718301881312E-4</v>
-      </c>
-      <c r="Z5">
-        <v>3.5773414382221293E-2</v>
-      </c>
-      <c r="AA5">
-        <v>2.6935642772388978E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>0.68900000000000006</v>
-      </c>
-      <c r="C6">
-        <v>0.76696070000000005</v>
-      </c>
-      <c r="S6">
-        <v>5846059.0000000009</v>
-      </c>
-      <c r="T6">
-        <v>7.27</v>
-      </c>
-      <c r="U6">
-        <v>4.6133888888888891E-3</v>
-      </c>
-      <c r="V6">
-        <v>8.6074127673314502E-3</v>
-      </c>
-      <c r="W6">
-        <v>0.29803269919979841</v>
-      </c>
-      <c r="X6">
-        <v>2.1850506315800192E-5</v>
-      </c>
-      <c r="Y6">
-        <v>3.0802672370724792E-4</v>
-      </c>
-      <c r="Z6">
-        <v>4.2897456218509447E-2</v>
-      </c>
-      <c r="AA6">
-        <v>2.2305456429762931E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>0.86833333333333329</v>
-      </c>
-      <c r="C7">
-        <v>0.97970383333333322</v>
-      </c>
-      <c r="S7">
-        <v>7460059</v>
-      </c>
-      <c r="T7">
-        <v>7.32</v>
-      </c>
-      <c r="U7">
-        <v>4.4321486111111074E-3</v>
-      </c>
-      <c r="V7">
-        <v>8.2692644086148522E-3</v>
-      </c>
-      <c r="W7">
-        <v>0.21514979568929249</v>
-      </c>
-      <c r="X7">
-        <v>2.0992093567679451E-5</v>
-      </c>
-      <c r="Y7">
-        <v>2.2236448165047969E-4</v>
-      </c>
-      <c r="Z7">
-        <v>4.1212199009925107E-2</v>
-      </c>
-      <c r="AA7">
-        <v>1.6102308258472989E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>1.1306666666666669</v>
-      </c>
-      <c r="C8">
-        <v>1.290909866666667</v>
-      </c>
-      <c r="S8">
-        <v>9821059</v>
-      </c>
-      <c r="T8">
-        <v>7.15</v>
-      </c>
-      <c r="U8">
-        <v>6.4834590277777771E-3</v>
-      </c>
-      <c r="V8">
-        <v>1.209648901408902E-2</v>
-      </c>
-      <c r="W8">
-        <v>0.2421027054555959</v>
-      </c>
-      <c r="X8">
-        <v>3.0707765125954913E-5</v>
-      </c>
-      <c r="Y8">
-        <v>2.5022121184143709E-4</v>
-      </c>
-      <c r="Z8">
-        <v>6.0286246507083807E-2</v>
-      </c>
-      <c r="AA8">
-        <v>1.8119526355889131E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>1.247333333333333</v>
-      </c>
-      <c r="C9">
-        <v>1.4293115333333331</v>
-      </c>
-      <c r="S9">
-        <v>10871059</v>
-      </c>
-      <c r="T9">
-        <v>7.08</v>
-      </c>
-      <c r="U9">
-        <v>2.883368055555557E-3</v>
-      </c>
-      <c r="V9">
-        <v>5.379632979582159E-3</v>
-      </c>
-      <c r="W9">
-        <v>8.9873562207488419E-2</v>
-      </c>
-      <c r="X9">
-        <v>1.3656566447375129E-5</v>
-      </c>
-      <c r="Y9">
-        <v>9.2887320716823277E-5</v>
-      </c>
-      <c r="Z9">
-        <v>2.681091013656842E-2</v>
-      </c>
-      <c r="AA9">
-        <v>6.7263452345637017E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>1.448</v>
-      </c>
-      <c r="C10">
-        <v>1.6673624</v>
-      </c>
-      <c r="S10">
-        <v>12677059</v>
-      </c>
-      <c r="T10">
-        <v>7.29</v>
-      </c>
-      <c r="U10">
-        <v>4.9593930555555483E-3</v>
-      </c>
-      <c r="V10">
-        <v>9.2529687248812959E-3</v>
-      </c>
-      <c r="W10">
-        <v>0.13579043420640519</v>
-      </c>
-      <c r="X10">
-        <v>2.3489294289485171E-5</v>
-      </c>
-      <c r="Y10">
-        <v>1.4034393766753459E-4</v>
-      </c>
-      <c r="Z10">
-        <v>4.6114765434897592E-2</v>
-      </c>
-      <c r="AA10">
-        <v>1.0162870120969629E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>1.422666666666667</v>
-      </c>
-      <c r="C11">
-        <v>1.6373094666666661</v>
-      </c>
-      <c r="S11">
-        <v>12449059</v>
-      </c>
-      <c r="T11">
-        <v>7.35</v>
-      </c>
-      <c r="U11">
-        <v>-6.2610277777777612E-4</v>
-      </c>
-      <c r="V11">
-        <v>-1.1681488755664079E-3</v>
-      </c>
-      <c r="W11">
-        <v>-1.6063989560141281E-2</v>
-      </c>
-      <c r="X11">
-        <v>-2.965425857144304E-6</v>
-      </c>
-      <c r="Y11">
-        <v>-1.6602668388949379E-5</v>
-      </c>
-      <c r="Z11">
-        <v>-5.8217976296548388E-3</v>
-      </c>
-      <c r="AA11">
-        <v>-1.202266127790518E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12">
-        <v>1.444666666666667</v>
-      </c>
-      <c r="C12">
-        <v>1.663408066666666</v>
-      </c>
-      <c r="D12">
-        <v>1.006251135132858E-2</v>
-      </c>
-      <c r="E12">
-        <v>3.6226851497704208E-4</v>
-      </c>
-      <c r="F12">
-        <v>1.673806255272485E-2</v>
-      </c>
-      <c r="G12">
-        <v>6.0260037011216575E-4</v>
-      </c>
-      <c r="H12">
-        <v>5.6250529306972402E-4</v>
-      </c>
-      <c r="I12">
-        <v>2.0298037462295548E-5</v>
-      </c>
-      <c r="J12">
-        <v>9.3567584203487592E-4</v>
-      </c>
-      <c r="K12">
-        <v>3.3763919252284612E-5</v>
-      </c>
-      <c r="L12">
-        <v>1.223839370628269E-3</v>
-      </c>
-      <c r="M12">
-        <v>3.8285161941690503E-5</v>
-      </c>
-      <c r="N12">
-        <v>2.0357442814073179E-3</v>
-      </c>
-      <c r="O12">
-        <v>6.3683847207447622E-5</v>
-      </c>
-      <c r="P12">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="Q12">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="R12">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="S12">
-        <v>12647059</v>
-      </c>
-      <c r="T12">
-        <v>7.29</v>
-      </c>
-      <c r="U12">
-        <v>5.437208333333351E-4</v>
-      </c>
-      <c r="V12">
-        <v>1.014445076149781E-3</v>
-      </c>
-      <c r="W12">
-        <v>1.3967019502344309E-2</v>
-      </c>
-      <c r="X12">
-        <v>2.5752382443621741E-6</v>
-      </c>
-      <c r="Y12">
-        <v>1.443537997278007E-5</v>
-      </c>
-      <c r="Z12">
-        <v>5.0557716257529153E-3</v>
-      </c>
-      <c r="AA12">
-        <v>1.0453240392737451E-3</v>
+        <v>0.17618329999999996</v>
+      </c>
+      <c r="D5">
+        <v>4.5010052632096162E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.9397162731225404E-4</v>
+      </c>
+      <c r="F5">
+        <f>D5*C5</f>
+        <v>7.9300196058963864E-4</v>
+      </c>
+      <c r="G5">
+        <f>E5*C5</f>
+        <v>3.4174561406243042E-5</v>
+      </c>
+      <c r="H5">
+        <v>1.5828036177104846E-4</v>
+      </c>
+      <c r="I5">
+        <v>1.4608807929704846E-5</v>
+      </c>
+      <c r="J5">
+        <f>H5*C5</f>
+        <v>2.7886356462017154E-5</v>
+      </c>
+      <c r="K5">
+        <f>C5*I5</f>
+        <v>2.5738279901215674E-6</v>
+      </c>
+      <c r="L5">
+        <v>6.1402005948004129E-4</v>
+      </c>
+      <c r="M5">
+        <v>1.5128962324079256E-5</v>
+      </c>
+      <c r="N5">
+        <f>L5*C5</f>
+        <v>1.0818008034538994E-4</v>
+      </c>
+      <c r="O5">
+        <f>M5*C5</f>
+        <v>2.6654705078319519E-6</v>
       </c>
     </row>
   </sheetData>
@@ -6997,10 +6577,616 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="14" max="15" width="24.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" customWidth="1"/>
+    <col min="24" max="24" width="32.7109375" customWidth="1"/>
+    <col min="25" max="25" width="35.7109375" customWidth="1"/>
+    <col min="26" max="26" width="32.7109375" customWidth="1"/>
+    <col min="27" max="27" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0.13833333333333331</v>
+      </c>
+      <c r="C2">
+        <v>0.1137048333333333</v>
+      </c>
+      <c r="D2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>6.822289999999998E-4</v>
+      </c>
+      <c r="H2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J2">
+        <v>4.5481933333333322E-5</v>
+      </c>
+      <c r="L2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="N2">
+        <v>9.0963866666666645E-5</v>
+      </c>
+      <c r="S2">
+        <v>890059</v>
+      </c>
+      <c r="T2">
+        <v>7.11</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0.2195</v>
+      </c>
+      <c r="C3">
+        <v>0.20999285000000001</v>
+      </c>
+      <c r="S3">
+        <v>1620559</v>
+      </c>
+      <c r="T3">
+        <v>6.57</v>
+      </c>
+      <c r="U3">
+        <v>2.0060003472222219E-3</v>
+      </c>
+      <c r="V3">
+        <v>3.7426875157950141E-3</v>
+      </c>
+      <c r="W3">
+        <v>0.52544533240194924</v>
+      </c>
+      <c r="X3">
+        <v>9.501068371245261E-6</v>
+      </c>
+      <c r="Y3">
+        <v>5.4306525646883718E-4</v>
+      </c>
+      <c r="Z3">
+        <v>1.8652733195012591E-2</v>
+      </c>
+      <c r="AA3">
+        <v>3.9325543806375422E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="C4">
+        <v>0.36085066666666671</v>
+      </c>
+      <c r="S4">
+        <v>2765059</v>
+      </c>
+      <c r="T4">
+        <v>7.11</v>
+      </c>
+      <c r="U4">
+        <v>3.142871180555556E-3</v>
+      </c>
+      <c r="V4">
+        <v>5.8637999477445524E-3</v>
+      </c>
+      <c r="W4">
+        <v>0.46681589311215749</v>
+      </c>
+      <c r="X4">
+        <v>1.4885657427638881E-5</v>
+      </c>
+      <c r="Y4">
+        <v>4.8246977769850018E-4</v>
+      </c>
+      <c r="Z4">
+        <v>2.922389204885956E-2</v>
+      </c>
+      <c r="AA4">
+        <v>3.4937580985211367E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.50233333333333341</v>
+      </c>
+      <c r="C5">
+        <v>0.54551803333333337</v>
+      </c>
+      <c r="S5">
+        <v>4166059.0000000009</v>
+      </c>
+      <c r="T5">
+        <v>6.94</v>
+      </c>
+      <c r="U5">
+        <v>3.8472368055555571E-3</v>
+      </c>
+      <c r="V5">
+        <v>7.1779674327567657E-3</v>
+      </c>
+      <c r="W5">
+        <v>0.3598985900788379</v>
+      </c>
+      <c r="X5">
+        <v>1.8221761516926239E-5</v>
+      </c>
+      <c r="Y5">
+        <v>3.7196718301881312E-4</v>
+      </c>
+      <c r="Z5">
+        <v>3.5773414382221293E-2</v>
+      </c>
+      <c r="AA5">
+        <v>2.6935642772388978E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>0.68900000000000006</v>
+      </c>
+      <c r="C6">
+        <v>0.76696070000000005</v>
+      </c>
+      <c r="S6">
+        <v>5846059.0000000009</v>
+      </c>
+      <c r="T6">
+        <v>7.27</v>
+      </c>
+      <c r="U6">
+        <v>4.6133888888888891E-3</v>
+      </c>
+      <c r="V6">
+        <v>8.6074127673314502E-3</v>
+      </c>
+      <c r="W6">
+        <v>0.29803269919979841</v>
+      </c>
+      <c r="X6">
+        <v>2.1850506315800192E-5</v>
+      </c>
+      <c r="Y6">
+        <v>3.0802672370724792E-4</v>
+      </c>
+      <c r="Z6">
+        <v>4.2897456218509447E-2</v>
+      </c>
+      <c r="AA6">
+        <v>2.2305456429762931E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0.86833333333333329</v>
+      </c>
+      <c r="C7">
+        <v>0.97970383333333322</v>
+      </c>
+      <c r="S7">
+        <v>7460059</v>
+      </c>
+      <c r="T7">
+        <v>7.32</v>
+      </c>
+      <c r="U7">
+        <v>4.4321486111111074E-3</v>
+      </c>
+      <c r="V7">
+        <v>8.2692644086148522E-3</v>
+      </c>
+      <c r="W7">
+        <v>0.21514979568929249</v>
+      </c>
+      <c r="X7">
+        <v>2.0992093567679451E-5</v>
+      </c>
+      <c r="Y7">
+        <v>2.2236448165047969E-4</v>
+      </c>
+      <c r="Z7">
+        <v>4.1212199009925107E-2</v>
+      </c>
+      <c r="AA7">
+        <v>1.6102308258472989E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1.1306666666666669</v>
+      </c>
+      <c r="C8">
+        <v>1.290909866666667</v>
+      </c>
+      <c r="S8">
+        <v>9821059</v>
+      </c>
+      <c r="T8">
+        <v>7.15</v>
+      </c>
+      <c r="U8">
+        <v>6.4834590277777771E-3</v>
+      </c>
+      <c r="V8">
+        <v>1.209648901408902E-2</v>
+      </c>
+      <c r="W8">
+        <v>0.2421027054555959</v>
+      </c>
+      <c r="X8">
+        <v>3.0707765125954913E-5</v>
+      </c>
+      <c r="Y8">
+        <v>2.5022121184143709E-4</v>
+      </c>
+      <c r="Z8">
+        <v>6.0286246507083807E-2</v>
+      </c>
+      <c r="AA8">
+        <v>1.8119526355889131E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>1.247333333333333</v>
+      </c>
+      <c r="C9">
+        <v>1.4293115333333331</v>
+      </c>
+      <c r="S9">
+        <v>10871059</v>
+      </c>
+      <c r="T9">
+        <v>7.08</v>
+      </c>
+      <c r="U9">
+        <v>2.883368055555557E-3</v>
+      </c>
+      <c r="V9">
+        <v>5.379632979582159E-3</v>
+      </c>
+      <c r="W9">
+        <v>8.9873562207488419E-2</v>
+      </c>
+      <c r="X9">
+        <v>1.3656566447375129E-5</v>
+      </c>
+      <c r="Y9">
+        <v>9.2887320716823277E-5</v>
+      </c>
+      <c r="Z9">
+        <v>2.681091013656842E-2</v>
+      </c>
+      <c r="AA9">
+        <v>6.7263452345637017E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1.448</v>
+      </c>
+      <c r="C10">
+        <v>1.6673624</v>
+      </c>
+      <c r="S10">
+        <v>12677059</v>
+      </c>
+      <c r="T10">
+        <v>7.29</v>
+      </c>
+      <c r="U10">
+        <v>4.9593930555555483E-3</v>
+      </c>
+      <c r="V10">
+        <v>9.2529687248812959E-3</v>
+      </c>
+      <c r="W10">
+        <v>0.13579043420640519</v>
+      </c>
+      <c r="X10">
+        <v>2.3489294289485171E-5</v>
+      </c>
+      <c r="Y10">
+        <v>1.4034393766753459E-4</v>
+      </c>
+      <c r="Z10">
+        <v>4.6114765434897592E-2</v>
+      </c>
+      <c r="AA10">
+        <v>1.0162870120969629E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>1.422666666666667</v>
+      </c>
+      <c r="C11">
+        <v>1.6373094666666661</v>
+      </c>
+      <c r="S11">
+        <v>12449059</v>
+      </c>
+      <c r="T11">
+        <v>7.35</v>
+      </c>
+      <c r="U11">
+        <v>-6.2610277777777612E-4</v>
+      </c>
+      <c r="V11">
+        <v>-1.1681488755664079E-3</v>
+      </c>
+      <c r="W11">
+        <v>-1.6063989560141281E-2</v>
+      </c>
+      <c r="X11">
+        <v>-2.965425857144304E-6</v>
+      </c>
+      <c r="Y11">
+        <v>-1.6602668388949379E-5</v>
+      </c>
+      <c r="Z11">
+        <v>-5.8217976296548388E-3</v>
+      </c>
+      <c r="AA11">
+        <v>-1.202266127790518E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>1.444666666666667</v>
+      </c>
+      <c r="C12">
+        <v>1.663408066666666</v>
+      </c>
+      <c r="D12">
+        <v>1.006251135132858E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.6226851497704208E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.673806255272485E-2</v>
+      </c>
+      <c r="G12">
+        <v>6.0260037011216575E-4</v>
+      </c>
+      <c r="H12">
+        <v>5.6250529306972402E-4</v>
+      </c>
+      <c r="I12">
+        <v>2.0298037462295548E-5</v>
+      </c>
+      <c r="J12">
+        <v>9.3567584203487592E-4</v>
+      </c>
+      <c r="K12">
+        <v>3.3763919252284612E-5</v>
+      </c>
+      <c r="L12">
+        <v>1.223839370628269E-3</v>
+      </c>
+      <c r="M12">
+        <v>3.8285161941690503E-5</v>
+      </c>
+      <c r="N12">
+        <v>2.0357442814073179E-3</v>
+      </c>
+      <c r="O12">
+        <v>6.3683847207447622E-5</v>
+      </c>
+      <c r="P12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="R12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="S12">
+        <v>12647059</v>
+      </c>
+      <c r="T12">
+        <v>7.29</v>
+      </c>
+      <c r="U12">
+        <v>5.437208333333351E-4</v>
+      </c>
+      <c r="V12">
+        <v>1.014445076149781E-3</v>
+      </c>
+      <c r="W12">
+        <v>1.3967019502344309E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.5752382443621741E-6</v>
+      </c>
+      <c r="Y12">
+        <v>1.443537997278007E-5</v>
+      </c>
+      <c r="Z12">
+        <v>5.0557716257529153E-3</v>
+      </c>
+      <c r="AA12">
+        <v>1.0453240392737451E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7563,7 +7749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
@@ -8051,11 +8237,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8537,11 +8723,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8999,13 +9187,13 @@
         <v>3.7927183213726997E-5</v>
       </c>
       <c r="P11">
-        <v>15.9</v>
+        <v>0.159</v>
       </c>
       <c r="Q11">
-        <v>51.3</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="R11">
-        <v>9.9</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="S11">
         <v>1.742378124999999E-3</v>
@@ -9034,11 +9222,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9140,22 +9330,26 @@
         <v>9.78464E-2</v>
       </c>
       <c r="D2">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F2">
-        <v>5.8707840000000002E-4</v>
+        <f>D2*C2</f>
+        <v>5.9686304000000005E-4</v>
       </c>
       <c r="H2">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="J2">
-        <v>3.9138560000000002E-5</v>
+        <f>H2*C2</f>
+        <v>4.4030879999999997E-5</v>
       </c>
       <c r="L2">
-        <v>8.0000000000000004E-4</v>
+        <f>0.0033</f>
+        <v>3.3E-3</v>
       </c>
       <c r="N2">
-        <v>7.8277120000000004E-5</v>
+        <f>L2*C2</f>
+        <v>3.2289311999999999E-4</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -9508,11 +9702,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9615,22 +9811,26 @@
         <v>9.3101199999999995E-2</v>
       </c>
       <c r="D2">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F2">
-        <v>5.5860719999999999E-4</v>
+        <f>D2*C2</f>
+        <v>5.6791732000000005E-4</v>
       </c>
       <c r="H2">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="J2">
-        <v>3.7240480000000002E-5</v>
+        <f>H2*C2</f>
+        <v>4.1895539999999995E-5</v>
       </c>
       <c r="L2">
-        <v>8.0000000000000004E-4</v>
+        <f>0.0033</f>
+        <v>3.3E-3</v>
       </c>
       <c r="N2">
-        <v>7.4480960000000005E-5</v>
+        <f>L2*C2</f>
+        <v>3.0723395999999998E-4</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -10047,11 +10247,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10156,22 +10358,26 @@
         <v>0.1010098666666667</v>
       </c>
       <c r="D2">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F2">
-        <v>6.0605920000000001E-4</v>
+        <f>D2*C2</f>
+        <v>6.1616018666666686E-4</v>
       </c>
       <c r="H2">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="J2">
-        <v>4.0403946666666667E-5</v>
+        <f>H2*C2</f>
+        <v>4.5454440000000013E-5</v>
       </c>
       <c r="L2">
-        <v>8.0000000000000004E-4</v>
+        <f>0.0033</f>
+        <v>3.3E-3</v>
       </c>
       <c r="N2">
-        <v>8.0807893333333333E-5</v>
+        <f>L2*C2</f>
+        <v>3.3333256000000008E-4</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -10524,11 +10730,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10635,22 +10843,26 @@
         <v>0.1203861</v>
       </c>
       <c r="D2">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F2">
-        <v>7.2231659999999996E-4</v>
+        <f>D2*C2</f>
+        <v>7.3435521000000004E-4</v>
       </c>
       <c r="H2">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="J2">
-        <v>4.8154439999999997E-5</v>
+        <f>H2*C2</f>
+        <v>5.4173744999999996E-5</v>
       </c>
       <c r="L2">
-        <v>8.0000000000000004E-4</v>
+        <f>0.0033</f>
+        <v>3.3E-3</v>
       </c>
       <c r="N2">
-        <v>9.6308880000000008E-5</v>
+        <f>L2*C2</f>
+        <v>3.9727413E-4</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -11067,11 +11279,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11175,22 +11389,26 @@
         <v>0.1120029133333333</v>
       </c>
       <c r="D2">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F2">
-        <v>6.7201748000000005E-4</v>
+        <f>D2*C2</f>
+        <v>6.8321777133333321E-4</v>
       </c>
       <c r="H2">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="J2">
-        <v>4.4801165333333341E-5</v>
+        <f>H2*C2</f>
+        <v>4.4801165333333321E-5</v>
       </c>
       <c r="L2">
-        <v>8.0000000000000004E-4</v>
+        <f>0.0033</f>
+        <v>3.3E-3</v>
       </c>
       <c r="N2">
-        <v>8.9602330666666683E-5</v>
+        <f>L2*C2</f>
+        <v>3.696096139999999E-4</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -11600,531 +11818,6 @@
       </c>
       <c r="V13">
         <v>1.391749234962142E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:V11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" customWidth="1"/>
-    <col min="18" max="18" width="29.7109375" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" customWidth="1"/>
-    <col min="20" max="20" width="35.7109375" customWidth="1"/>
-    <col min="21" max="21" width="32.7109375" customWidth="1"/>
-    <col min="22" max="22" width="35.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>0.11801349999999999</v>
-      </c>
-      <c r="D2">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="F2">
-        <v>7.1988234999999993E-4</v>
-      </c>
-      <c r="H2">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="J2">
-        <v>5.3106074999999988E-5</v>
-      </c>
-      <c r="L2">
-        <v>3.3E-3</v>
-      </c>
-      <c r="N2">
-        <v>3.8944454999999988E-4</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>0.26274209999999998</v>
-      </c>
-      <c r="P3">
-        <v>3.0151791666666659E-3</v>
-      </c>
-      <c r="Q3">
-        <v>5.3094481237181022E-3</v>
-      </c>
-      <c r="R3">
-        <v>0.63370428468791484</v>
-      </c>
-      <c r="S3">
-        <v>5.3492776529244188E-5</v>
-      </c>
-      <c r="T3">
-        <v>2.5993694339520772E-3</v>
-      </c>
-      <c r="U3">
-        <v>2.321900746975086E-2</v>
-      </c>
-      <c r="V3">
-        <v>4.1616849666594763E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>0.42259602499999988</v>
-      </c>
-      <c r="D4">
-        <v>6.9792688303282483E-3</v>
-      </c>
-      <c r="E4">
-        <v>6.3888279133698326E-4</v>
-      </c>
-      <c r="F4">
-        <v>2.9494112651031168E-3</v>
-      </c>
-      <c r="H4">
-        <v>5.8672822468793331E-4</v>
-      </c>
-      <c r="I4">
-        <v>1.15746828799658E-4</v>
-      </c>
-      <c r="J4">
-        <v>2.4794901550842752E-4</v>
-      </c>
-      <c r="L4">
-        <v>3.5369321775312072E-3</v>
-      </c>
-      <c r="M4">
-        <v>3.2278924388546708E-4</v>
-      </c>
-      <c r="N4">
-        <v>1.4946934789192819E-3</v>
-      </c>
-      <c r="P4">
-        <v>3.3302901041666658E-3</v>
-      </c>
-      <c r="Q4">
-        <v>5.8643289727132314E-3</v>
-      </c>
-      <c r="R4">
-        <v>0.38886333291142039</v>
-      </c>
-      <c r="S4">
-        <v>5.908321014193159E-5</v>
-      </c>
-      <c r="T4">
-        <v>1.5950649001094789E-3</v>
-      </c>
-      <c r="U4">
-        <v>2.5645584070073179E-2</v>
-      </c>
-      <c r="V4">
-        <v>2.5537568953941159E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>0.65837314999999985</v>
-      </c>
-      <c r="P5">
-        <v>4.9120234374999986E-3</v>
-      </c>
-      <c r="Q5">
-        <v>8.6496132343358411E-3</v>
-      </c>
-      <c r="R5">
-        <v>0.36363605698122259</v>
-      </c>
-      <c r="S5">
-        <v>8.7144994550715428E-5</v>
-      </c>
-      <c r="T5">
-        <v>1.4915860195980021E-3</v>
-      </c>
-      <c r="U5">
-        <v>3.7826047005024448E-2</v>
-      </c>
-      <c r="V5">
-        <v>2.3880834456080219E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>0.89187653333333317</v>
-      </c>
-      <c r="D6">
-        <v>1.170564914008322E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.3397861113288701E-4</v>
-      </c>
-      <c r="F6">
-        <v>1.043999377547373E-2</v>
-      </c>
-      <c r="H6">
-        <v>7.5856150346740648E-4</v>
-      </c>
-      <c r="I6">
-        <v>8.7732662535302641E-5</v>
-      </c>
-      <c r="J6">
-        <v>6.7654320403263165E-4</v>
-      </c>
-      <c r="L6">
-        <v>4.0081576560332868E-3</v>
-      </c>
-      <c r="M6">
-        <v>2.5531889975438411E-5</v>
-      </c>
-      <c r="N6">
-        <v>3.5747817553164261E-3</v>
-      </c>
-      <c r="P6">
-        <v>4.8646538194444438E-3</v>
-      </c>
-      <c r="Q6">
-        <v>8.5661997733757888E-3</v>
-      </c>
-      <c r="R6">
-        <v>0.25111352719169883</v>
-      </c>
-      <c r="S6">
-        <v>8.6304602569723209E-5</v>
-      </c>
-      <c r="T6">
-        <v>1.0300337914796549E-3</v>
-      </c>
-      <c r="U6">
-        <v>3.746126751608711E-2</v>
-      </c>
-      <c r="V6">
-        <v>1.649121548157426E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>1.222063366666666</v>
-      </c>
-      <c r="P7">
-        <v>6.8788923611111108E-3</v>
-      </c>
-      <c r="Q7">
-        <v>1.2113085200285841E-2</v>
-      </c>
-      <c r="R7">
-        <v>0.26040282842183021</v>
-      </c>
-      <c r="S7">
-        <v>1.2203953115278389E-4</v>
-      </c>
-      <c r="T7">
-        <v>1.0681372511907861E-3</v>
-      </c>
-      <c r="U7">
-        <v>5.2972325784814117E-2</v>
-      </c>
-      <c r="V7">
-        <v>1.710126572447656E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>1.523383566666666</v>
-      </c>
-      <c r="D8">
-        <v>1.1205200101400289E-2</v>
-      </c>
-      <c r="E8">
-        <v>1.2520718878799009E-3</v>
-      </c>
-      <c r="F8">
-        <v>1.7069817695684861E-2</v>
-      </c>
-      <c r="H8">
-        <v>8.2953331434089817E-4</v>
-      </c>
-      <c r="I8">
-        <v>1.4230866155066449E-4</v>
-      </c>
-      <c r="J8">
-        <v>1.263697419069458E-3</v>
-      </c>
-      <c r="L8">
-        <v>4.144134162240464E-3</v>
-      </c>
-      <c r="M8">
-        <v>2.3804556879262521E-4</v>
-      </c>
-      <c r="N8">
-        <v>6.313105880819056E-3</v>
-      </c>
-      <c r="P8">
-        <v>6.2775041666666646E-3</v>
-      </c>
-      <c r="Q8">
-        <v>1.1054096913314739E-2</v>
-      </c>
-      <c r="R8">
-        <v>0.18297585084188511</v>
-      </c>
-      <c r="S8">
-        <v>1.1137020687236079E-4</v>
-      </c>
-      <c r="T8">
-        <v>7.5054224079296509E-4</v>
-      </c>
-      <c r="U8">
-        <v>4.8341212273087852E-2</v>
-      </c>
-      <c r="V8">
-        <v>1.2016454142888039E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>1.6384546666666659</v>
-      </c>
-      <c r="P9">
-        <v>2.397314583333328E-3</v>
-      </c>
-      <c r="Q9">
-        <v>4.2214464590217609E-3</v>
-      </c>
-      <c r="R9">
-        <v>6.0674359425239008E-2</v>
-      </c>
-      <c r="S9">
-        <v>4.2531141994562928E-5</v>
-      </c>
-      <c r="T9">
-        <v>2.4887803211281681E-4</v>
-      </c>
-      <c r="U9">
-        <v>1.8461014135785481E-2</v>
-      </c>
-      <c r="V9">
-        <v>3.9846277764409499E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>1.7638070333333331</v>
-      </c>
-      <c r="D10">
-        <v>8.4872632072829132E-3</v>
-      </c>
-      <c r="E10">
-        <v>5.3656021161189234E-4</v>
-      </c>
-      <c r="F10">
-        <v>1.496989453875682E-2</v>
-      </c>
-      <c r="G10">
-        <v>9.4638867504787724E-4</v>
-      </c>
-      <c r="H10">
-        <v>6.8018414285714291E-4</v>
-      </c>
-      <c r="I10">
-        <v>7.2286314057647176E-5</v>
-      </c>
-      <c r="J10">
-        <v>1.199713575133233E-3</v>
-      </c>
-      <c r="K10">
-        <v>1.2749910914862031E-4</v>
-      </c>
-      <c r="L10">
-        <v>3.3748384173669468E-3</v>
-      </c>
-      <c r="M10">
-        <v>8.4498131357771966E-5</v>
-      </c>
-      <c r="N10">
-        <v>5.9525637369153553E-3</v>
-      </c>
-      <c r="O10">
-        <v>1.4903839839236209E-4</v>
-      </c>
-      <c r="P10">
-        <v>2.6115076388888939E-3</v>
-      </c>
-      <c r="Q10">
-        <v>4.5986203694498417E-3</v>
-      </c>
-      <c r="R10">
-        <v>6.1424750854741347E-2</v>
-      </c>
-      <c r="S10">
-        <v>4.6331175299919262E-5</v>
-      </c>
-      <c r="T10">
-        <v>2.5195603646355051E-4</v>
-      </c>
-      <c r="U10">
-        <v>2.0110451824893551E-2</v>
-      </c>
-      <c r="V10">
-        <v>4.0339077451381463E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>1.8784826999999999</v>
-      </c>
-      <c r="P11">
-        <v>2.3890763888888881E-3</v>
-      </c>
-      <c r="Q11">
-        <v>4.2069397701591507E-3</v>
-      </c>
-      <c r="R11">
-        <v>5.248985413060326E-2</v>
-      </c>
-      <c r="S11">
-        <v>4.2384986867433922E-5</v>
-      </c>
-      <c r="T11">
-        <v>2.1530629619600451E-4</v>
-      </c>
-      <c r="U11">
-        <v>1.839757422466598E-2</v>
-      </c>
-      <c r="V11">
-        <v>3.44713207904315E-3</v>
       </c>
     </row>
   </sheetData>
@@ -12730,11 +12423,509 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" customWidth="1"/>
+    <col min="18" max="18" width="29.7109375" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" customWidth="1"/>
+    <col min="20" max="20" width="35.7109375" customWidth="1"/>
+    <col min="21" max="21" width="32.7109375" customWidth="1"/>
+    <col min="22" max="22" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>0.11801349999999999</v>
+      </c>
+      <c r="D2">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="F2">
+        <v>7.1988234999999993E-4</v>
+      </c>
+      <c r="H2">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="J2">
+        <v>5.3106074999999988E-5</v>
+      </c>
+      <c r="L2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="N2">
+        <v>3.8944454999999988E-4</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>0.26274209999999998</v>
+      </c>
+      <c r="P3">
+        <v>3.0151791666666659E-3</v>
+      </c>
+      <c r="Q3">
+        <v>5.3094481237181022E-3</v>
+      </c>
+      <c r="R3">
+        <v>0.63370428468791484</v>
+      </c>
+      <c r="S3">
+        <v>5.3492776529244188E-5</v>
+      </c>
+      <c r="T3">
+        <v>2.5993694339520772E-3</v>
+      </c>
+      <c r="U3">
+        <v>2.321900746975086E-2</v>
+      </c>
+      <c r="V3">
+        <v>4.1616849666594763E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.42259602499999988</v>
+      </c>
+      <c r="D4">
+        <v>6.9792688303282483E-3</v>
+      </c>
+      <c r="E4">
+        <v>6.3888279133698326E-4</v>
+      </c>
+      <c r="F4">
+        <v>2.9494112651031168E-3</v>
+      </c>
+      <c r="H4">
+        <v>5.8672822468793331E-4</v>
+      </c>
+      <c r="I4">
+        <v>1.15746828799658E-4</v>
+      </c>
+      <c r="J4">
+        <v>2.4794901550842752E-4</v>
+      </c>
+      <c r="L4">
+        <v>3.5369321775312072E-3</v>
+      </c>
+      <c r="M4">
+        <v>3.2278924388546708E-4</v>
+      </c>
+      <c r="N4">
+        <v>1.4946934789192819E-3</v>
+      </c>
+      <c r="P4">
+        <v>3.3302901041666658E-3</v>
+      </c>
+      <c r="Q4">
+        <v>5.8643289727132314E-3</v>
+      </c>
+      <c r="R4">
+        <v>0.38886333291142039</v>
+      </c>
+      <c r="S4">
+        <v>5.908321014193159E-5</v>
+      </c>
+      <c r="T4">
+        <v>1.5950649001094789E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.5645584070073179E-2</v>
+      </c>
+      <c r="V4">
+        <v>2.5537568953941159E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0.65837314999999985</v>
+      </c>
+      <c r="P5">
+        <v>4.9120234374999986E-3</v>
+      </c>
+      <c r="Q5">
+        <v>8.6496132343358411E-3</v>
+      </c>
+      <c r="R5">
+        <v>0.36363605698122259</v>
+      </c>
+      <c r="S5">
+        <v>8.7144994550715428E-5</v>
+      </c>
+      <c r="T5">
+        <v>1.4915860195980021E-3</v>
+      </c>
+      <c r="U5">
+        <v>3.7826047005024448E-2</v>
+      </c>
+      <c r="V5">
+        <v>2.3880834456080219E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0.89187653333333317</v>
+      </c>
+      <c r="D6">
+        <v>1.170564914008322E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.3397861113288701E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.043999377547373E-2</v>
+      </c>
+      <c r="H6">
+        <v>7.5856150346740648E-4</v>
+      </c>
+      <c r="I6">
+        <v>8.7732662535302641E-5</v>
+      </c>
+      <c r="J6">
+        <v>6.7654320403263165E-4</v>
+      </c>
+      <c r="L6">
+        <v>4.0081576560332868E-3</v>
+      </c>
+      <c r="M6">
+        <v>2.5531889975438411E-5</v>
+      </c>
+      <c r="N6">
+        <v>3.5747817553164261E-3</v>
+      </c>
+      <c r="P6">
+        <v>4.8646538194444438E-3</v>
+      </c>
+      <c r="Q6">
+        <v>8.5661997733757888E-3</v>
+      </c>
+      <c r="R6">
+        <v>0.25111352719169883</v>
+      </c>
+      <c r="S6">
+        <v>8.6304602569723209E-5</v>
+      </c>
+      <c r="T6">
+        <v>1.0300337914796549E-3</v>
+      </c>
+      <c r="U6">
+        <v>3.746126751608711E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.649121548157426E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>1.222063366666666</v>
+      </c>
+      <c r="P7">
+        <v>6.8788923611111108E-3</v>
+      </c>
+      <c r="Q7">
+        <v>1.2113085200285841E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.26040282842183021</v>
+      </c>
+      <c r="S7">
+        <v>1.2203953115278389E-4</v>
+      </c>
+      <c r="T7">
+        <v>1.0681372511907861E-3</v>
+      </c>
+      <c r="U7">
+        <v>5.2972325784814117E-2</v>
+      </c>
+      <c r="V7">
+        <v>1.710126572447656E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>1.523383566666666</v>
+      </c>
+      <c r="D8">
+        <v>1.1205200101400289E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.2520718878799009E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.7069817695684861E-2</v>
+      </c>
+      <c r="H8">
+        <v>8.2953331434089817E-4</v>
+      </c>
+      <c r="I8">
+        <v>1.4230866155066449E-4</v>
+      </c>
+      <c r="J8">
+        <v>1.263697419069458E-3</v>
+      </c>
+      <c r="L8">
+        <v>4.144134162240464E-3</v>
+      </c>
+      <c r="M8">
+        <v>2.3804556879262521E-4</v>
+      </c>
+      <c r="N8">
+        <v>6.313105880819056E-3</v>
+      </c>
+      <c r="P8">
+        <v>6.2775041666666646E-3</v>
+      </c>
+      <c r="Q8">
+        <v>1.1054096913314739E-2</v>
+      </c>
+      <c r="R8">
+        <v>0.18297585084188511</v>
+      </c>
+      <c r="S8">
+        <v>1.1137020687236079E-4</v>
+      </c>
+      <c r="T8">
+        <v>7.5054224079296509E-4</v>
+      </c>
+      <c r="U8">
+        <v>4.8341212273087852E-2</v>
+      </c>
+      <c r="V8">
+        <v>1.2016454142888039E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1.6384546666666659</v>
+      </c>
+      <c r="P9">
+        <v>2.397314583333328E-3</v>
+      </c>
+      <c r="Q9">
+        <v>4.2214464590217609E-3</v>
+      </c>
+      <c r="R9">
+        <v>6.0674359425239008E-2</v>
+      </c>
+      <c r="S9">
+        <v>4.2531141994562928E-5</v>
+      </c>
+      <c r="T9">
+        <v>2.4887803211281681E-4</v>
+      </c>
+      <c r="U9">
+        <v>1.8461014135785481E-2</v>
+      </c>
+      <c r="V9">
+        <v>3.9846277764409499E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1.7638070333333331</v>
+      </c>
+      <c r="D10">
+        <v>8.4872632072829132E-3</v>
+      </c>
+      <c r="E10">
+        <v>5.3656021161189234E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.496989453875682E-2</v>
+      </c>
+      <c r="G10">
+        <v>9.4638867504787724E-4</v>
+      </c>
+      <c r="H10">
+        <v>6.8018414285714291E-4</v>
+      </c>
+      <c r="I10">
+        <v>7.2286314057647176E-5</v>
+      </c>
+      <c r="J10">
+        <v>1.199713575133233E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.2749910914862031E-4</v>
+      </c>
+      <c r="L10">
+        <v>3.3748384173669468E-3</v>
+      </c>
+      <c r="M10">
+        <v>8.4498131357771966E-5</v>
+      </c>
+      <c r="N10">
+        <v>5.9525637369153553E-3</v>
+      </c>
+      <c r="O10">
+        <v>1.4903839839236209E-4</v>
+      </c>
+      <c r="P10">
+        <v>2.6115076388888939E-3</v>
+      </c>
+      <c r="Q10">
+        <v>4.5986203694498417E-3</v>
+      </c>
+      <c r="R10">
+        <v>6.1424750854741347E-2</v>
+      </c>
+      <c r="S10">
+        <v>4.6331175299919262E-5</v>
+      </c>
+      <c r="T10">
+        <v>2.5195603646355051E-4</v>
+      </c>
+      <c r="U10">
+        <v>2.0110451824893551E-2</v>
+      </c>
+      <c r="V10">
+        <v>4.0339077451381463E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13212,7 +13403,346 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE9FF0A-1364-4094-8AA7-2DB21CF92934}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>0.1220337388888889</v>
+      </c>
+      <c r="H2">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="J2">
+        <v>5.3106074999999988E-5</v>
+      </c>
+      <c r="L2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="N2">
+        <v>3.8944454999999988E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0.91</v>
+      </c>
+      <c r="D10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E10">
+        <f>I10</f>
+        <v>1.5399999999999992E-4</v>
+      </c>
+      <c r="F10">
+        <f>D10*C10</f>
+        <v>8.6449999999999999E-3</v>
+      </c>
+      <c r="G10">
+        <f>E10/C10</f>
+        <v>1.6923076923076915E-4</v>
+      </c>
+      <c r="H10">
+        <v>5.2700000000000002E-4</v>
+      </c>
+      <c r="I10">
+        <v>1.5399999999999992E-4</v>
+      </c>
+      <c r="J10">
+        <f>H10*C10</f>
+        <v>4.7957000000000002E-4</v>
+      </c>
+      <c r="K10">
+        <f>I10*C10</f>
+        <v>1.4013999999999994E-4</v>
+      </c>
+      <c r="L10">
+        <v>8.1699999999999991E-4</v>
+      </c>
+      <c r="M10">
+        <v>1.4800000000000013E-4</v>
+      </c>
+      <c r="N10">
+        <f>L10*C10</f>
+        <v>7.4346999999999998E-4</v>
+      </c>
+      <c r="O10">
+        <f>N10*C10</f>
+        <v>6.7655769999999996E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF77343-6057-4EA3-9F4F-9A10B4D1A384}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>0.11801349999999999</v>
+      </c>
+      <c r="H2">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="J2">
+        <v>5.3106074999999988E-5</v>
+      </c>
+      <c r="L2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="N2">
+        <v>3.8944454999999988E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2.13</v>
+      </c>
+      <c r="D10">
+        <v>1.2289999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.8318000000000015E-4</v>
+      </c>
+      <c r="F10">
+        <f>C10*E10</f>
+        <v>3.9017340000000031E-4</v>
+      </c>
+      <c r="G10">
+        <v>9.4638867504787724E-4</v>
+      </c>
+      <c r="H10">
+        <v>9.9700000000000006E-4</v>
+      </c>
+      <c r="I10">
+        <v>8.6000000000000071E-5</v>
+      </c>
+      <c r="J10">
+        <f>H10*C10</f>
+        <v>2.1236100000000002E-3</v>
+      </c>
+      <c r="K10">
+        <f>I10*C10</f>
+        <v>1.8318000000000015E-4</v>
+      </c>
+      <c r="L10">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="M10">
+        <v>3.0000000000000248E-5</v>
+      </c>
+      <c r="N10">
+        <f>L10*C10</f>
+        <v>2.5772999999999998E-3</v>
+      </c>
+      <c r="O10">
+        <f>M10*C10</f>
+        <v>6.3900000000000523E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -13524,7 +14054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -13855,7 +14385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -14084,7 +14614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -14290,7 +14820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -14526,7 +15056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -14755,315 +15285,6 @@
       </c>
       <c r="G14">
         <v>2.9964000000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.1599999999999997E-3</v>
-      </c>
-      <c r="D2">
-        <v>4.7256000000000002E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C3">
-        <v>8.1599999999999989E-3</v>
-      </c>
-      <c r="D3">
-        <v>9.4655999999999994E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="C4">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.9036000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="C5">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>4.2112E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-      <c r="C6">
-        <v>1.4182999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>5.6731999999999998E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.1599999999999997E-3</v>
-      </c>
-      <c r="D2">
-        <v>4.7256000000000002E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C3">
-        <v>1.444E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.38624E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>0.193</v>
-      </c>
-      <c r="C4">
-        <v>2.5229999999999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.8693900000000004E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5">
-        <v>0.219</v>
-      </c>
-      <c r="C5">
-        <v>3.2390000000000002E-2</v>
-      </c>
-      <c r="D5">
-        <v>7.0934100000000014E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="C6">
-        <v>3.5650000000000001E-2</v>
-      </c>
-      <c r="D6">
-        <v>9.7681000000000018E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.1599999999999997E-3</v>
-      </c>
-      <c r="D2">
-        <v>4.7256000000000002E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.1050000000000001E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.2818E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="C4">
-        <v>1.3310000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.74186E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5">
-        <v>0.24</v>
-      </c>
-      <c r="C5">
-        <v>1.908E-2</v>
-      </c>
-      <c r="D5">
-        <v>4.5791999999999994E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="C6">
-        <v>2.0590000000000001E-2</v>
-      </c>
-      <c r="D6">
-        <v>6.1975900000000002E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15598,6 +15819,315 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.7256000000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C3">
+        <v>8.1599999999999989E-3</v>
+      </c>
+      <c r="D3">
+        <v>9.4655999999999994E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.9036000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.2112E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+      <c r="C6">
+        <v>1.4182999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.6731999999999998E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.7256000000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.444E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.38624E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.193</v>
+      </c>
+      <c r="C4">
+        <v>2.5229999999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.8693900000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>0.219</v>
+      </c>
+      <c r="C5">
+        <v>3.2390000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.0934100000000014E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C6">
+        <v>3.5650000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.7681000000000018E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.7256000000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.1050000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.2818E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.3310000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.74186E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>0.24</v>
+      </c>
+      <c r="C5">
+        <v>1.908E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.5791999999999994E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C6">
+        <v>2.0590000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.1975900000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -15699,11 +16229,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16847,14 +17379,14 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
+      <c r="A20" s="2">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>62</v>
@@ -16880,43 +17412,19 @@
       <c r="K20">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="L20">
-        <v>0.16</v>
-      </c>
-      <c r="M20">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="N20">
-        <v>1.663408066666666</v>
-      </c>
-      <c r="O20">
-        <v>2.6244164415261371E-2</v>
-      </c>
-      <c r="P20">
-        <v>1.3122082207630681</v>
-      </c>
-      <c r="Q20">
-        <v>6.6863999999999999</v>
-      </c>
-      <c r="R20">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="S20">
-        <v>0.50160000000000005</v>
-      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>150</v>
@@ -16940,33 +17448,33 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L21">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="M21">
-        <v>5.8999999999999997E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="N21">
-        <v>0.78396433333333315</v>
+        <v>1.663408066666666</v>
       </c>
       <c r="O21">
-        <v>2.0057048979734381E-2</v>
+        <v>2.6244164415261371E-2</v>
       </c>
       <c r="P21">
-        <v>2.005704897973438</v>
+        <v>1.3122082207630681</v>
       </c>
       <c r="Q21">
-        <v>6.0095999999999998</v>
+        <v>6.6863999999999999</v>
       </c>
       <c r="R21">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="S21">
-        <v>0.39600000000000002</v>
+        <v>0.50160000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -16975,7 +17483,7 @@
         <v>0.1</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>150</v>
@@ -16990,7 +17498,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="I22">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J22" t="s">
         <v>145</v>
@@ -16999,33 +17507,33 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L22">
-        <v>0.19900000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="M22">
-        <v>8.7999999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="N22">
-        <v>0.93343813333333325</v>
+        <v>0.78396433333333315</v>
       </c>
       <c r="O22">
-        <v>2.816146529434322E-2</v>
+        <v>2.0057048979734381E-2</v>
       </c>
       <c r="P22">
-        <v>2.816146529434322</v>
+        <v>2.005704897973438</v>
       </c>
       <c r="Q22">
-        <v>8.5679999999999996</v>
+        <v>6.0095999999999998</v>
       </c>
       <c r="R22">
-        <v>1.44E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="S22">
-        <v>0.57599999999999996</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -17049,7 +17557,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="I23">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="J23" t="s">
         <v>145</v>
@@ -17058,33 +17566,33 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L23">
-        <v>0.17299999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="M23">
-        <v>6.5000000000000002E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="N23">
-        <v>0.7195087</v>
+        <v>0.93343813333333325</v>
       </c>
       <c r="O23">
-        <v>3.342205741162458E-2</v>
+        <v>2.816146529434322E-2</v>
       </c>
       <c r="P23">
-        <v>3.3422057411624579</v>
+        <v>2.816146529434322</v>
       </c>
       <c r="Q23">
-        <v>7.1664000000000003</v>
+        <v>8.5679999999999996</v>
       </c>
       <c r="R23">
-        <v>7.1999999999999998E-3</v>
+        <v>1.44E-2</v>
       </c>
       <c r="S23">
-        <v>0.48959999999999998</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -17108,7 +17616,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="I24">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="J24" t="s">
         <v>145</v>
@@ -17117,42 +17625,42 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L24">
-        <v>0.18</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="M24">
-        <v>7.8E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N24">
-        <v>0.84565193333333322</v>
+        <v>0.7195087</v>
       </c>
       <c r="O24">
-        <v>2.8917451313036038E-2</v>
+        <v>3.342205741162458E-2</v>
       </c>
       <c r="P24">
-        <v>2.8917451313036042</v>
+        <v>3.3422057411624579</v>
       </c>
       <c r="Q24">
-        <v>7.1063999999999998</v>
+        <v>7.1664000000000003</v>
       </c>
       <c r="R24">
-        <v>2.8799999999999999E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="S24">
-        <v>0.46560000000000001</v>
+        <v>0.48959999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>150</v>
@@ -17176,36 +17684,36 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L25">
-        <v>0.221</v>
+        <v>0.18</v>
       </c>
       <c r="M25">
-        <v>0.107</v>
+        <v>7.8E-2</v>
       </c>
       <c r="N25">
-        <v>1.5522502</v>
+        <v>0.84565193333333322</v>
       </c>
       <c r="O25">
-        <v>3.4266128324945043E-2</v>
+        <v>2.8917451313036038E-2</v>
       </c>
       <c r="P25">
-        <v>0.34266128324945028</v>
+        <v>2.8917451313036042</v>
       </c>
       <c r="Q25">
-        <v>8.5391999999999992</v>
+        <v>7.1063999999999998</v>
       </c>
       <c r="R25">
-        <v>3.5999999999999997E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="S25">
-        <v>0.56159999999999999</v>
+        <v>0.46560000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0.2</v>
@@ -17217,16 +17725,16 @@
         <v>150</v>
       </c>
       <c r="F26">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G26">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="H26">
-        <v>8.0000000000000004E-4</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I26">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J26" t="s">
         <v>145</v>
@@ -17235,39 +17743,39 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L26">
-        <v>0.17</v>
+        <v>0.221</v>
       </c>
       <c r="M26">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="N26">
-        <v>2.1390732666666672</v>
+        <v>1.5522502</v>
       </c>
       <c r="O26">
-        <v>1.7823719638342051E-2</v>
+        <v>3.4266128324945043E-2</v>
       </c>
       <c r="P26">
-        <v>0.53471158915026151</v>
+        <v>0.34266128324945028</v>
       </c>
       <c r="Q26">
-        <v>6.5472000000000001</v>
+        <v>8.5391999999999992</v>
       </c>
       <c r="R26">
-        <v>2.64E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="S26">
-        <v>0.42959999999999998</v>
+        <v>0.56159999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
         <v>65</v>
@@ -17276,16 +17784,16 @@
         <v>150</v>
       </c>
       <c r="F27">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G27">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="H27">
-        <v>8.0000000000000004E-4</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I27">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J27" t="s">
         <v>145</v>
@@ -17294,36 +17802,36 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L27">
-        <v>0.192</v>
+        <v>0.17</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.106</v>
       </c>
       <c r="N27">
-        <v>1.504007333333333</v>
+        <v>2.1390732666666672</v>
       </c>
       <c r="O27">
-        <v>5.5081484497646098E-2</v>
+        <v>1.7823719638342051E-2</v>
       </c>
       <c r="P27">
-        <v>0.27540742248823052</v>
+        <v>0.53471158915026151</v>
       </c>
       <c r="Q27">
-        <v>7.4496000000000002</v>
+        <v>6.5472000000000001</v>
       </c>
       <c r="R27">
-        <v>3.1199999999999999E-2</v>
+        <v>2.64E-2</v>
       </c>
       <c r="S27">
-        <v>0.48959999999999998</v>
+        <v>0.42959999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0.4</v>
@@ -17335,16 +17843,16 @@
         <v>150</v>
       </c>
       <c r="F28">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G28">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="H28">
-        <v>8.0000000000000004E-4</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I28">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J28" t="s">
         <v>145</v>
@@ -17353,39 +17861,39 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L28">
-        <v>0.17299999999999999</v>
+        <v>0.192</v>
       </c>
       <c r="M28">
-        <v>0.112</v>
+        <v>0.1</v>
       </c>
       <c r="N28">
-        <v>2.1635901333333329</v>
+        <v>1.504007333333333</v>
       </c>
       <c r="O28">
-        <v>3.8759223168829751E-2</v>
+        <v>5.5081484497646098E-2</v>
       </c>
       <c r="P28">
-        <v>0.58138834753244628</v>
+        <v>0.27540742248823052</v>
       </c>
       <c r="Q28">
-        <v>6.7320000000000002</v>
+        <v>7.4496000000000002</v>
       </c>
       <c r="R28">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="S28">
-        <v>0.44159999999999999</v>
+        <v>0.48959999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D29">
         <v>65</v>
@@ -17394,16 +17902,16 @@
         <v>150</v>
       </c>
       <c r="F29">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G29">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="H29">
-        <v>8.0000000000000004E-4</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I29">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J29" t="s">
         <v>145</v>
@@ -17412,42 +17920,42 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L29">
-        <v>0.13700000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="M29">
-        <v>0.104</v>
+        <v>0.112</v>
       </c>
       <c r="N29">
-        <v>1.9910230266666671</v>
+        <v>2.1635901333333329</v>
       </c>
       <c r="O29">
-        <v>2.8118333953730659E-2</v>
+        <v>3.8759223168829751E-2</v>
       </c>
       <c r="P29">
-        <v>0.37491111938307548</v>
+        <v>0.58138834753244628</v>
       </c>
       <c r="Q29">
-        <v>5.3952</v>
+        <v>6.7320000000000002</v>
       </c>
       <c r="R29">
-        <v>2.1600000000000001E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="S29">
-        <v>0.35520000000000002</v>
+        <v>0.44159999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>150</v>
@@ -17471,39 +17979,39 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L30">
-        <v>0.17599999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="M30">
-        <v>0.126</v>
+        <v>0.104</v>
       </c>
       <c r="N30">
-        <v>1.8784826999999999</v>
+        <v>1.9910230266666671</v>
       </c>
       <c r="O30">
-        <v>2.7922292682529559E-2</v>
+        <v>2.8118333953730659E-2</v>
       </c>
       <c r="P30">
-        <v>1.0470859755948581</v>
+        <v>0.37491111938307548</v>
       </c>
       <c r="Q30">
-        <v>6.9455999999999998</v>
+        <v>5.3952</v>
       </c>
       <c r="R30">
-        <v>2.8799999999999999E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="S30">
-        <v>0.45600000000000002</v>
+        <v>0.35520000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
         <v>62</v>
@@ -17521,7 +18029,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="I31">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J31" t="s">
         <v>145</v>
@@ -17530,168 +18038,213 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L31">
-        <v>0.191</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="M31">
-        <v>9.5000000000000001E-2</v>
+        <v>0.126</v>
       </c>
       <c r="N31">
-        <v>1.023555833333333</v>
+        <v>1.8784826999999999</v>
       </c>
       <c r="O31">
-        <v>2.5009375969949881E-2</v>
+        <v>2.7922292682529559E-2</v>
       </c>
       <c r="P31">
-        <v>2.5009375969949881</v>
+        <v>1.0470859755948581</v>
       </c>
       <c r="Q31">
-        <v>7.5191999999999997</v>
+        <v>6.9455999999999998</v>
       </c>
       <c r="R31">
-        <v>3.1199999999999999E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="S31">
-        <v>0.49440000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32">
-        <v>38.265701715838581</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D32">
-        <v>87.66</v>
+        <v>62</v>
       </c>
       <c r="E32">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F32">
-        <v>4.5109999999999997E-2</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G32">
-        <v>2.5892545613630099E-3</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="H32">
-        <v>2.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I32">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N32">
-        <v>1.37228714524207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.023555833333333</v>
+      </c>
+      <c r="O32">
+        <v>2.5009375969949881E-2</v>
+      </c>
+      <c r="P32">
+        <v>2.5009375969949881</v>
+      </c>
+      <c r="Q32">
+        <v>7.5191999999999997</v>
+      </c>
+      <c r="R32">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="S32">
+        <v>0.49440000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B33">
-        <v>44.641710907109839</v>
+        <v>7.5</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
-        <v>87.66</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>1950</v>
+        <v>150</v>
       </c>
       <c r="F33">
-        <v>1.1690000000000001E-2</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G33">
-        <v>5.9999999999999995E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="H33">
-        <v>2.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I33">
         <v>500</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K33">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="N33">
-        <v>4.4479924515183802</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.8784826999999999</v>
+      </c>
+      <c r="O33">
+        <v>2.7922292682529559E-2</v>
+      </c>
+      <c r="P33">
+        <v>1.0470859755948581</v>
+      </c>
+      <c r="Q33">
+        <v>6.9455999999999998</v>
+      </c>
+      <c r="R33">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="S33">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B34">
-        <v>1.4110825408800589</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D34">
-        <v>87.66</v>
+        <v>62</v>
       </c>
       <c r="E34">
-        <v>1950</v>
+        <v>150</v>
       </c>
       <c r="F34">
-        <v>2.579E-2</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G34">
-        <v>7.2041166380789397E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="H34">
-        <v>2.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I34">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K34">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N34">
-        <v>1.2251264252151099</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.023555833333333</v>
+      </c>
+      <c r="O34">
+        <v>2.5009375969949881E-2</v>
+      </c>
+      <c r="P34">
+        <v>2.5009375969949881</v>
+      </c>
+      <c r="Q34">
+        <v>7.5191999999999997</v>
+      </c>
+      <c r="R34">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="S34">
+        <v>0.49440000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B35">
-        <v>43.431902765392458</v>
+        <v>38.265701715838581</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -17700,13 +18253,13 @@
         <v>87.66</v>
       </c>
       <c r="E35">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="F35">
-        <v>6.2140000000000001E-2</v>
+        <v>4.5109999999999997E-2</v>
       </c>
       <c r="G35">
-        <v>2E-3</v>
+        <v>2.5892545613630099E-3</v>
       </c>
       <c r="H35">
         <v>2.5999999999999999E-3</v>
@@ -17727,39 +18280,39 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>5.8906166298893696</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.37228714524207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>44.641710907109839</v>
       </c>
       <c r="C36">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>87.66</v>
       </c>
       <c r="E36">
-        <v>770</v>
+        <v>1950</v>
       </c>
       <c r="F36">
-        <v>6.0699999999999997E-2</v>
+        <v>1.1690000000000001E-2</v>
       </c>
       <c r="G36">
-        <v>7.9000000000000008E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H36">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="I36">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K36">
         <v>0.05</v>
@@ -17771,39 +18324,39 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.4479924515183802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>1.4110825408800589</v>
       </c>
       <c r="C37">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>87.66</v>
       </c>
       <c r="E37">
-        <v>386</v>
+        <v>1950</v>
       </c>
       <c r="F37">
-        <v>6.0600000000000008E-2</v>
+        <v>2.579E-2</v>
       </c>
       <c r="G37">
-        <v>7.9000000000000008E-3</v>
+        <v>7.2041166380789397E-4</v>
       </c>
       <c r="H37">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="I37">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K37">
         <v>0.05</v>
@@ -17815,30 +18368,30 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.2251264252151099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>43.431902765392458</v>
       </c>
       <c r="C38">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>87.66</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F38">
-        <v>6.0699999999999997E-2</v>
+        <v>6.2140000000000001E-2</v>
       </c>
       <c r="G38">
-        <v>7.1599999999999997E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H38">
         <v>2.5999999999999999E-3</v>
@@ -17847,10 +18400,10 @@
         <v>500</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K38">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -17859,15 +18412,15 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.8906166298893696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>0.13</v>
@@ -17876,25 +18429,25 @@
         <v>87.66</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>770</v>
       </c>
       <c r="F39">
         <v>6.0699999999999997E-2</v>
       </c>
       <c r="G39">
-        <v>7.1599999999999997E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="H39">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="I39">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J39" t="s">
         <v>145</v>
       </c>
       <c r="K39">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -17903,12 +18456,12 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -17917,28 +18470,28 @@
         <v>0.13</v>
       </c>
       <c r="D40">
-        <v>175.32</v>
+        <v>87.66</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="F40">
-        <v>6.0699999999999997E-2</v>
+        <v>6.0600000000000008E-2</v>
       </c>
       <c r="G40">
-        <v>7.1599999999999997E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="H40">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="I40">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J40" t="s">
         <v>145</v>
       </c>
       <c r="K40">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -17947,12 +18500,12 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -17964,7 +18517,7 @@
         <v>87.66</v>
       </c>
       <c r="E41">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F41">
         <v>6.0699999999999997E-2</v>
@@ -17991,6 +18544,138 @@
         <v>0</v>
       </c>
       <c r="N41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.13</v>
+      </c>
+      <c r="D42">
+        <v>87.66</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="G42">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="H42">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I42">
+        <v>500</v>
+      </c>
+      <c r="J42" t="s">
+        <v>145</v>
+      </c>
+      <c r="K42">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0.13</v>
+      </c>
+      <c r="D43">
+        <v>175.32</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="G43">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="H43">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I43">
+        <v>500</v>
+      </c>
+      <c r="J43" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0.13</v>
+      </c>
+      <c r="D44">
+        <v>87.66</v>
+      </c>
+      <c r="E44">
+        <v>2000</v>
+      </c>
+      <c r="F44">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="G44">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="H44">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I44">
+        <v>500</v>
+      </c>
+      <c r="J44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
         <v>0.496</v>
       </c>
     </row>
